--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ereg-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ereg-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ereg</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>2.546857</v>
       </c>
       <c r="I2">
-        <v>0.9028411137296274</v>
+        <v>0.6346554277922418</v>
       </c>
       <c r="J2">
-        <v>0.9028411137296274</v>
+        <v>0.634655427792242</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>0.5931069644460001</v>
+        <v>1.388331368475556</v>
       </c>
       <c r="R2">
-        <v>5.337962680014001</v>
+        <v>12.49498231628</v>
       </c>
       <c r="S2">
-        <v>0.009060915882887653</v>
+        <v>0.01703237663878177</v>
       </c>
       <c r="T2">
-        <v>0.009060915882887653</v>
+        <v>0.01703237663878177</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>2.546857</v>
       </c>
       <c r="I3">
-        <v>0.9028411137296274</v>
+        <v>0.6346554277922418</v>
       </c>
       <c r="J3">
-        <v>0.9028411137296274</v>
+        <v>0.634655427792242</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>38.98080407299855</v>
+        <v>38.98080407299857</v>
       </c>
       <c r="R3">
-        <v>350.827236656987</v>
+        <v>350.8272366569871</v>
       </c>
       <c r="S3">
-        <v>0.5955111100114587</v>
+        <v>0.4782256972144182</v>
       </c>
       <c r="T3">
-        <v>0.5955111100114587</v>
+        <v>0.4782256972144183</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -673,10 +673,10 @@
         <v>2.546857</v>
       </c>
       <c r="I4">
-        <v>0.9028411137296274</v>
+        <v>0.6346554277922418</v>
       </c>
       <c r="J4">
-        <v>0.9028411137296274</v>
+        <v>0.634655427792242</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>0.1978622075047778</v>
+        <v>0.713089680700111</v>
       </c>
       <c r="R4">
-        <v>1.780759867543</v>
+        <v>6.417807126301</v>
       </c>
       <c r="S4">
-        <v>0.003022747878669501</v>
+        <v>0.008748352370838741</v>
       </c>
       <c r="T4">
-        <v>0.003022747878669501</v>
+        <v>0.008748352370838743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -735,10 +735,10 @@
         <v>2.546857</v>
       </c>
       <c r="I5">
-        <v>0.9028411137296274</v>
+        <v>0.6346554277922418</v>
       </c>
       <c r="J5">
-        <v>0.9028411137296274</v>
+        <v>0.634655427792242</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>16.79790259447811</v>
+        <v>6.444422347919223</v>
       </c>
       <c r="R5">
-        <v>151.181123350303</v>
+        <v>57.999801131273</v>
       </c>
       <c r="S5">
-        <v>0.2566221466640088</v>
+        <v>0.07906169315303137</v>
       </c>
       <c r="T5">
-        <v>0.2566221466640088</v>
+        <v>0.0790616931530314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>2.546857</v>
       </c>
       <c r="I6">
-        <v>0.9028411137296274</v>
+        <v>0.6346554277922418</v>
       </c>
       <c r="J6">
-        <v>0.9028411137296274</v>
+        <v>0.634655427792242</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>2.156268180638889</v>
+        <v>4.058380124549667</v>
       </c>
       <c r="R6">
-        <v>19.40641362575</v>
+        <v>36.525421120947</v>
       </c>
       <c r="S6">
-        <v>0.03294138456790117</v>
+        <v>0.04978916445616064</v>
       </c>
       <c r="T6">
-        <v>0.03294138456790117</v>
+        <v>0.04978916445616065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>2.546857</v>
       </c>
       <c r="I7">
-        <v>0.9028411137296274</v>
+        <v>0.6346554277922418</v>
       </c>
       <c r="J7">
-        <v>0.9028411137296274</v>
+        <v>0.634655427792242</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>0.371983745992</v>
+        <v>0.146569073493</v>
       </c>
       <c r="R7">
-        <v>3.347853713928</v>
+        <v>1.319121661437</v>
       </c>
       <c r="S7">
-        <v>0.005682808724701512</v>
+        <v>0.001798143959011192</v>
       </c>
       <c r="T7">
-        <v>0.005682808724701512</v>
+        <v>0.001798143959011192</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.09135966666666667</v>
+        <v>0.4686963333333334</v>
       </c>
       <c r="H8">
-        <v>0.274079</v>
+        <v>1.406089</v>
       </c>
       <c r="I8">
-        <v>0.09715888627037267</v>
+        <v>0.3503855991164661</v>
       </c>
       <c r="J8">
-        <v>0.09715888627037267</v>
+        <v>0.3503855991164662</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>0.06382696936200001</v>
+        <v>0.7664809863955556</v>
       </c>
       <c r="R8">
-        <v>0.574442724258</v>
+        <v>6.898328877560001</v>
       </c>
       <c r="S8">
-        <v>0.0009750868479329483</v>
+        <v>0.009403369500387348</v>
       </c>
       <c r="T8">
-        <v>0.0009750868479329483</v>
+        <v>0.00940336950038735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.09135966666666667</v>
+        <v>0.4686963333333334</v>
       </c>
       <c r="H9">
-        <v>0.274079</v>
+        <v>1.406089</v>
       </c>
       <c r="I9">
-        <v>0.09715888627037267</v>
+        <v>0.3503855991164661</v>
       </c>
       <c r="J9">
-        <v>0.09715888627037267</v>
+        <v>0.3503855991164662</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
-        <v>4.194903679132111</v>
+        <v>21.52083129056656</v>
       </c>
       <c r="R9">
-        <v>37.754133112189</v>
+        <v>193.687481615099</v>
       </c>
       <c r="S9">
-        <v>0.0640856905279058</v>
+        <v>0.2640226335324379</v>
       </c>
       <c r="T9">
-        <v>0.0640856905279058</v>
+        <v>0.2640226335324379</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.09135966666666667</v>
+        <v>0.4686963333333334</v>
       </c>
       <c r="H10">
-        <v>0.274079</v>
+        <v>1.406089</v>
       </c>
       <c r="I10">
-        <v>0.09715888627037267</v>
+        <v>0.3503855991164661</v>
       </c>
       <c r="J10">
-        <v>0.09715888627037267</v>
+        <v>0.3503855991164662</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>0.02129286252455556</v>
+        <v>0.3936882031641111</v>
       </c>
       <c r="R10">
-        <v>0.191635762721</v>
+        <v>3.543193828477</v>
       </c>
       <c r="S10">
-        <v>0.0003252918070538935</v>
+        <v>0.004829859719945122</v>
       </c>
       <c r="T10">
-        <v>0.0003252918070538935</v>
+        <v>0.004829859719945123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.09135966666666667</v>
+        <v>0.4686963333333334</v>
       </c>
       <c r="H11">
-        <v>0.274079</v>
+        <v>1.406089</v>
       </c>
       <c r="I11">
-        <v>0.09715888627037267</v>
+        <v>0.3503855991164661</v>
       </c>
       <c r="J11">
-        <v>0.09715888627037267</v>
+        <v>0.3503855991164662</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>1.807699586271222</v>
+        <v>3.557887770991222</v>
       </c>
       <c r="R11">
-        <v>16.269296276441</v>
+        <v>32.02098993892101</v>
       </c>
       <c r="S11">
-        <v>0.02761628993521224</v>
+        <v>0.0436490062315445</v>
       </c>
       <c r="T11">
-        <v>0.02761628993521224</v>
+        <v>0.04364900623154451</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.09135966666666667</v>
+        <v>0.4686963333333334</v>
       </c>
       <c r="H12">
-        <v>0.274079</v>
+        <v>1.406089</v>
       </c>
       <c r="I12">
-        <v>0.09715888627037267</v>
+        <v>0.3503855991164661</v>
       </c>
       <c r="J12">
-        <v>0.09715888627037267</v>
+        <v>0.3503855991164662</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>0.2320459400277778</v>
+        <v>2.240582667557667</v>
       </c>
       <c r="R12">
-        <v>2.08841346025</v>
+        <v>20.165244008019</v>
       </c>
       <c r="S12">
-        <v>0.003544973958485217</v>
+        <v>0.02748799656242909</v>
       </c>
       <c r="T12">
-        <v>0.003544973958485217</v>
+        <v>0.02748799656242909</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4686963333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.406089</v>
+      </c>
+      <c r="I13">
+        <v>0.3503855991164661</v>
+      </c>
+      <c r="J13">
+        <v>0.3503855991164662</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.172647</v>
+      </c>
+      <c r="N13">
+        <v>0.517941</v>
+      </c>
+      <c r="O13">
+        <v>0.002833260191701732</v>
+      </c>
+      <c r="P13">
+        <v>0.002833260191701732</v>
+      </c>
+      <c r="Q13">
+        <v>0.080919015861</v>
+      </c>
+      <c r="R13">
+        <v>0.7282711427490001</v>
+      </c>
+      <c r="S13">
+        <v>0.0009927335697222451</v>
+      </c>
+      <c r="T13">
+        <v>0.0009927335697222451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02001</v>
+      </c>
+      <c r="H14">
+        <v>0.06003</v>
+      </c>
+      <c r="I14">
+        <v>0.01495897309129185</v>
+      </c>
+      <c r="J14">
+        <v>0.01495897309129185</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.635346666666667</v>
+      </c>
+      <c r="N14">
+        <v>4.90604</v>
+      </c>
+      <c r="O14">
+        <v>0.02683720313876748</v>
+      </c>
+      <c r="P14">
+        <v>0.02683720313876747</v>
+      </c>
+      <c r="Q14">
+        <v>0.0327232868</v>
+      </c>
+      <c r="R14">
+        <v>0.2945095812</v>
+      </c>
+      <c r="S14">
+        <v>0.0004014569995983558</v>
+      </c>
+      <c r="T14">
+        <v>0.0004014569995983558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02001</v>
+      </c>
+      <c r="H15">
+        <v>0.06003</v>
+      </c>
+      <c r="I15">
+        <v>0.01495897309129185</v>
+      </c>
+      <c r="J15">
+        <v>0.01495897309129185</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N15">
+        <v>137.749091</v>
+      </c>
+      <c r="O15">
+        <v>0.7535202194331003</v>
+      </c>
+      <c r="P15">
+        <v>0.7535202194331002</v>
+      </c>
+      <c r="Q15">
+        <v>0.9187864369700002</v>
+      </c>
+      <c r="R15">
+        <v>8.269077932730001</v>
+      </c>
+      <c r="S15">
+        <v>0.01127188868624407</v>
+      </c>
+      <c r="T15">
+        <v>0.01127188868624408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02001</v>
+      </c>
+      <c r="H16">
+        <v>0.06003</v>
+      </c>
+      <c r="I16">
+        <v>0.01495897309129185</v>
+      </c>
+      <c r="J16">
+        <v>0.01495897309129185</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.8399643333333332</v>
+      </c>
+      <c r="N16">
+        <v>2.519893</v>
+      </c>
+      <c r="O16">
+        <v>0.01378441275019327</v>
+      </c>
+      <c r="P16">
+        <v>0.01378441275019327</v>
+      </c>
+      <c r="Q16">
+        <v>0.01680768631</v>
+      </c>
+      <c r="R16">
+        <v>0.15126917679</v>
+      </c>
+      <c r="S16">
+        <v>0.0002062006594094013</v>
+      </c>
+      <c r="T16">
+        <v>0.0002062006594094013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02001</v>
+      </c>
+      <c r="H17">
+        <v>0.06003</v>
+      </c>
+      <c r="I17">
+        <v>0.01495897309129185</v>
+      </c>
+      <c r="J17">
+        <v>0.01495897309129185</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.591029666666667</v>
+      </c>
+      <c r="N17">
+        <v>22.773089</v>
+      </c>
+      <c r="O17">
+        <v>0.1245742015128762</v>
+      </c>
+      <c r="P17">
+        <v>0.1245742015128762</v>
+      </c>
+      <c r="Q17">
+        <v>0.15189650363</v>
+      </c>
+      <c r="R17">
+        <v>1.36706853267</v>
+      </c>
+      <c r="S17">
+        <v>0.001863502128300283</v>
+      </c>
+      <c r="T17">
+        <v>0.001863502128300283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.09135966666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.274079</v>
-      </c>
-      <c r="I13">
-        <v>0.09715888627037267</v>
-      </c>
-      <c r="J13">
-        <v>0.09715888627037267</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.4381679999999999</v>
-      </c>
-      <c r="N13">
-        <v>1.314504</v>
-      </c>
-      <c r="O13">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="P13">
-        <v>0.006294361918484071</v>
-      </c>
-      <c r="Q13">
-        <v>0.040030882424</v>
-      </c>
-      <c r="R13">
-        <v>0.360277941816</v>
-      </c>
-      <c r="S13">
-        <v>0.0006115531937825586</v>
-      </c>
-      <c r="T13">
-        <v>0.0006115531937825586</v>
+      <c r="G18">
+        <v>0.02001</v>
+      </c>
+      <c r="H18">
+        <v>0.06003</v>
+      </c>
+      <c r="I18">
+        <v>0.01495897309129185</v>
+      </c>
+      <c r="J18">
+        <v>0.01495897309129185</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.780457</v>
+      </c>
+      <c r="N18">
+        <v>14.341371</v>
+      </c>
+      <c r="O18">
+        <v>0.07845070297336118</v>
+      </c>
+      <c r="P18">
+        <v>0.07845070297336117</v>
+      </c>
+      <c r="Q18">
+        <v>0.09565694457</v>
+      </c>
+      <c r="R18">
+        <v>0.8609125011300001</v>
+      </c>
+      <c r="S18">
+        <v>0.001173541954771439</v>
+      </c>
+      <c r="T18">
+        <v>0.001173541954771439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02001</v>
+      </c>
+      <c r="H19">
+        <v>0.06003</v>
+      </c>
+      <c r="I19">
+        <v>0.01495897309129185</v>
+      </c>
+      <c r="J19">
+        <v>0.01495897309129185</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.172647</v>
+      </c>
+      <c r="N19">
+        <v>0.517941</v>
+      </c>
+      <c r="O19">
+        <v>0.002833260191701732</v>
+      </c>
+      <c r="P19">
+        <v>0.002833260191701732</v>
+      </c>
+      <c r="Q19">
+        <v>0.00345466647</v>
+      </c>
+      <c r="R19">
+        <v>0.03109199823</v>
+      </c>
+      <c r="S19">
+        <v>4.238266296829458E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.238266296829459E-05</v>
       </c>
     </row>
   </sheetData>
